--- a/results/predictions/Rick Astley - Never Gonna Give You Up (Official Video) (4K Remaster).xlsx
+++ b/results/predictions/Rick Astley - Never Gonna Give You Up (Official Video) (4K Remaster).xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>admiration</t>
+          <t>nervousness</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>strong</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>excitement</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>nervousness</t>
+          <t>annoyance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mild</t>
+          <t>strong</t>
         </is>
       </c>
     </row>
